--- a/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
+++ b/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6BDE2363-66CA-431E-AD4F-8692E3A3CB36}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F1F9404C-6276-4A48-A843-6D2D63C38DD0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Data Hora</t>
-  </si>
-  <si>
     <t>Chuva (mm)</t>
   </si>
   <si>
@@ -37,6 +34,9 @@
   </si>
   <si>
     <t>Vazão (m3/s)</t>
+  </si>
+  <si>
+    <t>Data-Hora</t>
   </si>
 </sst>
 </file>
@@ -360,9 +360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -374,16 +372,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
+++ b/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F1F9404C-6276-4A48-A843-6D2D63C38DD0}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8FDF7471-2E73-4DE2-A20C-58F6BECB1C19}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -358,9 +358,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -386,221 +388,662 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45200.958472222221</v>
+        <v>45200.000138888892</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="1">
-        <v>2641.4</v>
+        <v>2705.2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45200.916805555556</v>
+        <v>45200.041805555556</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="1">
-        <v>2612.9</v>
+        <v>2712.7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45200.875138888892</v>
+        <v>45200.083472222221</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1">
-        <v>2586.1999999999998</v>
+        <v>2717.3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45200.833472222221</v>
+        <v>45200.125138888892</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1">
-        <v>2557</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45200.791805555556</v>
+        <v>45200.166805555556</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1">
-        <v>2546.3000000000002</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45200.750138888892</v>
+        <v>45200.208472222221</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="1">
-        <v>2542.6999999999998</v>
+        <v>2684.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45200.708472222221</v>
+        <v>45200.250138888892</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
-        <v>2528.3000000000002</v>
+        <v>2658.3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45200.666805555556</v>
+        <v>45200.291805555556</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
-        <v>2508</v>
+        <v>2644.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45200.625138888892</v>
+        <v>45200.333472222221</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="1">
-        <v>2507.6</v>
+        <v>2632.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45200.583472222221</v>
+        <v>45200.375138888892</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="1">
-        <v>2515.3000000000002</v>
+        <v>2586.9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45200.541805555556</v>
+        <v>45200.416805555556</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="1">
-        <v>2525.1999999999998</v>
+        <v>2565.8000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45200.500138888892</v>
+        <v>45200.458472222221</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="1">
-        <v>2536.5</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45200.458472222221</v>
+        <v>45200.500138888892</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="1">
-        <v>2550</v>
+        <v>2536.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45200.416805555556</v>
+        <v>45200.541805555556</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="1">
-        <v>2565.8000000000002</v>
+        <v>2525.1999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45200.375138888892</v>
+        <v>45200.583472222221</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="1">
-        <v>2586.9</v>
+        <v>2515.3000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45200.333472222221</v>
+        <v>45200.625138888892</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="1">
-        <v>2632.5</v>
+        <v>2507.6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45200.291805555556</v>
+        <v>45200.666805555556</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="1">
-        <v>2644.5</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45200.250138888892</v>
+        <v>45200.708472222221</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="1">
-        <v>2658.3</v>
+        <v>2528.3000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45200.208472222221</v>
+        <v>45200.750138888892</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="1">
-        <v>2684.5</v>
+        <v>2542.6999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45200.166805555556</v>
+        <v>45200.791805555556</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="1">
-        <v>2708</v>
+        <v>2546.3000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45200.125138888892</v>
+        <v>45200.833472222221</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="1">
-        <v>2722</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45200.083472222221</v>
+        <v>45200.875138888892</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="1">
-        <v>2717.3</v>
+        <v>2586.1999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45200.041805555556</v>
+        <v>45200.916805555556</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="1">
-        <v>2712.7</v>
+        <v>2612.9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45200.000138888892</v>
+        <v>45200.958472222221</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="1">
-        <v>2705.2</v>
+        <v>2641.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>45215.000138888892</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2511.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>45215.041805555556</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2510.8000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>45215.083472222221</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2511.3000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>45215.125138888892</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2510.8000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>45215.166805555556</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2510.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>45215.208472222221</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2512.8000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>45215.250138888892</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2513.6999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>45215.291805555556</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2503.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>45215.333472222221</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>45215.375138888892</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2500.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>45215.416805555556</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2496.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>45215.458472222221</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2502.1999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>45215.500138888892</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2503.6999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>45215.541805555556</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2505.1999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>45215.583472222221</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2507.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>45215.625138888892</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>45215.666805555556</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2506.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>45215.708472222221</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2507.3000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>45215.750138888892</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2508.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>45215.791805555556</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2508.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45215.833472222221</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2507.3000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>45215.875138888892</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2509.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>45215.916805555556</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2511.3000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>45215.958472222221</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2522.1999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>45216.000138888892</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="1">
+        <v>2525.3000000000002</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>45216.041805555556</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="1">
+        <v>2559.3000000000002</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>45216.083472222221</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="1">
+        <v>2569.1</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>45216.125138888892</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="1">
+        <v>2553.6999999999998</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>45216.166805555556</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="1">
+        <v>2536.4</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>45216.208472222221</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="1">
+        <v>2528.9</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>45216.250138888892</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="1">
+        <v>2524.5</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>45216.291805555556</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="1">
+        <v>2519.1999999999998</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>45216.333472222221</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="1">
+        <v>2515.3000000000002</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>45216.375138888892</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="1">
+        <v>2515</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>45216.416805555556</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="1">
+        <v>2513</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>45216.458472222221</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="1">
+        <v>2512.3000000000002</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>45216.500138888892</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="1">
+        <v>2509.3000000000002</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>45216.541805555556</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="1">
+        <v>2507.8000000000002</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>45216.583472222221</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="1">
+        <v>2509.3000000000002</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>45216.625138888892</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="1">
+        <v>2540.4</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>45216.666805555556</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="1">
+        <v>2615.6999999999998</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>45216.708472222221</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="1">
+        <v>2661.6</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C25">
+    <sortCondition ref="A2:A25"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
+++ b/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8FDF7471-2E73-4DE2-A20C-58F6BECB1C19}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{86674F7D-84A2-443F-A11E-A2F3E1AB8D86}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,10 +43,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -360,15 +366,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -786,7 +792,7 @@
         <v>2511.3000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45215.958472222221</v>
       </c>
@@ -794,256 +800,199 @@
         <v>2522.1999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>45216.000138888892</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2525.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>45216.041805555556</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2559.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>45216.083472222221</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2569.1999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>45216.125138888892</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2553.8000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>45216.166805555556</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2536.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>45216.208472222221</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2528.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>45216.250138888892</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2524.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>45216.291805555556</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2519.3000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>45216.333472222221</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2515.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>45216.375138888892</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>45216.000138888892</v>
-      </c>
-      <c r="B60" s="2"/>
+        <v>45216.416805555556</v>
+      </c>
       <c r="C60" s="1">
-        <v>2525.3000000000002</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>45216.041805555556</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>45216.458472222221</v>
+      </c>
       <c r="C61" s="1">
-        <v>2559.3000000000002</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2512.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>45216.083472222221</v>
-      </c>
-      <c r="B62" s="2"/>
+        <v>45216.500138888892</v>
+      </c>
       <c r="C62" s="1">
-        <v>2569.1</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2509.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>45216.125138888892</v>
-      </c>
-      <c r="B63" s="2"/>
+        <v>45216.541805555556</v>
+      </c>
       <c r="C63" s="1">
-        <v>2553.6999999999998</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2507.9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>45216.166805555556</v>
-      </c>
-      <c r="B64" s="2"/>
+        <v>45216.583472222221</v>
+      </c>
       <c r="C64" s="1">
-        <v>2536.4</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2509.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>45216.208472222221</v>
-      </c>
-      <c r="B65" s="2"/>
+        <v>45216.625138888892</v>
+      </c>
       <c r="C65" s="1">
-        <v>2528.9</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2540.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>45216.250138888892</v>
-      </c>
-      <c r="B66" s="2"/>
+        <v>45216.666805555556</v>
+      </c>
       <c r="C66" s="1">
-        <v>2524.5</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2615.8000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>45216.291805555556</v>
-      </c>
-      <c r="B67" s="2"/>
+        <v>45216.708472222221</v>
+      </c>
       <c r="C67" s="1">
-        <v>2519.1999999999998</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2661.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>45216.333472222221</v>
-      </c>
-      <c r="B68" s="2"/>
+        <v>45216.750138888892</v>
+      </c>
       <c r="C68" s="1">
-        <v>2515.3000000000002</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>45216.375138888892</v>
-      </c>
+        <v>2683.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="1">
-        <v>2515</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>45216.416805555556</v>
-      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="1">
-        <v>2513</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>45216.458472222221</v>
-      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="1">
-        <v>2512.3000000000002</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>45216.500138888892</v>
-      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="1">
-        <v>2509.3000000000002</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>45216.541805555556</v>
-      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="1">
-        <v>2507.8000000000002</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>45216.583472222221</v>
-      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="1">
-        <v>2509.3000000000002</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>45216.625138888892</v>
-      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="1">
-        <v>2540.4</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>45216.666805555556</v>
-      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="1">
-        <v>2615.6999999999998</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>45216.708472222221</v>
-      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="1">
-        <v>2661.6</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C25">
-    <sortCondition ref="A2:A25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A50:D68">
+    <sortCondition ref="A50:A68"/>
   </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
+++ b/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{86674F7D-84A2-443F-A11E-A2F3E1AB8D86}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{80EC0F15-BD18-4BE7-8728-C796D49309A0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,7 +920,7 @@
         <v>2509.4</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>45216.625138888892</v>
       </c>
@@ -928,7 +928,7 @@
         <v>2540.5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>45216.666805555556</v>
       </c>
@@ -936,7 +936,7 @@
         <v>2615.8000000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>45216.708472222221</v>
       </c>
@@ -944,7 +944,7 @@
         <v>2661.7</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>45216.750138888892</v>
       </c>
@@ -952,41 +952,155 @@
         <v>2683.4</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>45216.791805555556</v>
+      </c>
       <c r="B69" s="2"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
+      <c r="C69" s="1">
+        <v>2655.5</v>
+      </c>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>45216.833472222221</v>
+      </c>
       <c r="B70" s="2"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
+      <c r="C70" s="1">
+        <v>2654</v>
+      </c>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>45216.875138888892</v>
+      </c>
       <c r="B71" s="2"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
+      <c r="C71" s="1">
+        <v>2671.7</v>
+      </c>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>45216.916805555556</v>
+      </c>
       <c r="B72" s="2"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
+      <c r="C72" s="1">
+        <v>2688.2</v>
+      </c>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>45216.958472222221</v>
+      </c>
       <c r="B73" s="2"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
+      <c r="C73" s="1">
+        <v>2702.3</v>
+      </c>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>45217.000138888892</v>
+      </c>
       <c r="B74" s="2"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
+      <c r="C74" s="1">
+        <v>2716</v>
+      </c>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>45217.041805555556</v>
+      </c>
       <c r="B75" s="2"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
+      <c r="C75" s="1">
+        <v>2715.9</v>
+      </c>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>45217.083472222221</v>
+      </c>
       <c r="B76" s="2"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
+      <c r="C76" s="1">
+        <v>2716.8</v>
+      </c>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>45217.125138888892</v>
+      </c>
       <c r="B77" s="2"/>
+      <c r="C77" s="1">
+        <v>2701.6</v>
+      </c>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>45217.166805555556</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="1">
+        <v>2672.5</v>
+      </c>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>45217.208472222221</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="1">
+        <v>2626.5</v>
+      </c>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>45217.250138888892</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="1">
+        <v>2599</v>
+      </c>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>45217.291805555556</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="1">
+        <v>2577.6</v>
+      </c>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>45217.333472222221</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="1">
+        <v>2552.9</v>
+      </c>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>45217.375138888892</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="1">
+        <v>2538.4</v>
+      </c>
+      <c r="D83" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A50:D68">

--- a/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
+++ b/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{80EC0F15-BD18-4BE7-8728-C796D49309A0}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9F102A25-3C22-47ED-BBFC-9D009813D79C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,12 +78,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,16 +365,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -382,7 +383,7 @@
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -396,7 +397,9 @@
       <c r="A2" s="2">
         <v>45200.000138888892</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
       <c r="C2" s="1">
         <v>2705.2</v>
       </c>
@@ -405,7 +408,9 @@
       <c r="A3" s="2">
         <v>45200.041805555556</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
       <c r="C3" s="1">
         <v>2712.7</v>
       </c>
@@ -414,7 +419,9 @@
       <c r="A4" s="2">
         <v>45200.083472222221</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
       <c r="C4" s="1">
         <v>2717.3</v>
       </c>
@@ -423,7 +430,9 @@
       <c r="A5" s="2">
         <v>45200.125138888892</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
       <c r="C5" s="1">
         <v>2722</v>
       </c>
@@ -432,7 +441,9 @@
       <c r="A6" s="2">
         <v>45200.166805555556</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
       <c r="C6" s="1">
         <v>2708</v>
       </c>
@@ -441,7 +452,9 @@
       <c r="A7" s="2">
         <v>45200.208472222221</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
       <c r="C7" s="1">
         <v>2684.5</v>
       </c>
@@ -450,7 +463,9 @@
       <c r="A8" s="2">
         <v>45200.250138888892</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
       <c r="C8" s="1">
         <v>2658.3</v>
       </c>
@@ -459,7 +474,9 @@
       <c r="A9" s="2">
         <v>45200.291805555556</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
       <c r="C9" s="1">
         <v>2644.5</v>
       </c>
@@ -468,7 +485,9 @@
       <c r="A10" s="2">
         <v>45200.333472222221</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
       <c r="C10" s="1">
         <v>2632.5</v>
       </c>
@@ -477,7 +496,9 @@
       <c r="A11" s="2">
         <v>45200.375138888892</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
       <c r="C11" s="1">
         <v>2586.9</v>
       </c>
@@ -486,7 +507,9 @@
       <c r="A12" s="2">
         <v>45200.416805555556</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
       <c r="C12" s="1">
         <v>2565.8000000000002</v>
       </c>
@@ -495,7 +518,9 @@
       <c r="A13" s="2">
         <v>45200.458472222221</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
       <c r="C13" s="1">
         <v>2550</v>
       </c>
@@ -504,7 +529,9 @@
       <c r="A14" s="2">
         <v>45200.500138888892</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
       <c r="C14" s="1">
         <v>2536.5</v>
       </c>
@@ -513,7 +540,9 @@
       <c r="A15" s="2">
         <v>45200.541805555556</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
       <c r="C15" s="1">
         <v>2525.1999999999998</v>
       </c>
@@ -522,7 +551,9 @@
       <c r="A16" s="2">
         <v>45200.583472222221</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
       <c r="C16" s="1">
         <v>2515.3000000000002</v>
       </c>
@@ -531,7 +562,9 @@
       <c r="A17" s="2">
         <v>45200.625138888892</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
       <c r="C17" s="1">
         <v>2507.6</v>
       </c>
@@ -540,7 +573,9 @@
       <c r="A18" s="2">
         <v>45200.666805555556</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
       <c r="C18" s="1">
         <v>2508</v>
       </c>
@@ -549,7 +584,9 @@
       <c r="A19" s="2">
         <v>45200.708472222221</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
       <c r="C19" s="1">
         <v>2528.3000000000002</v>
       </c>
@@ -558,7 +595,9 @@
       <c r="A20" s="2">
         <v>45200.750138888892</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
       <c r="C20" s="1">
         <v>2542.6999999999998</v>
       </c>
@@ -567,7 +606,9 @@
       <c r="A21" s="2">
         <v>45200.791805555556</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
       <c r="C21" s="1">
         <v>2546.3000000000002</v>
       </c>
@@ -576,7 +617,9 @@
       <c r="A22" s="2">
         <v>45200.833472222221</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
       <c r="C22" s="1">
         <v>2557</v>
       </c>
@@ -585,7 +628,9 @@
       <c r="A23" s="2">
         <v>45200.875138888892</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
       <c r="C23" s="1">
         <v>2586.1999999999998</v>
       </c>
@@ -594,7 +639,9 @@
       <c r="A24" s="2">
         <v>45200.916805555556</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
       <c r="C24" s="1">
         <v>2612.9</v>
       </c>
@@ -603,7 +650,9 @@
       <c r="A25" s="2">
         <v>45200.958472222221</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
       <c r="C25" s="1">
         <v>2641.4</v>
       </c>
@@ -612,6 +661,9 @@
       <c r="A26" s="2">
         <v>45215.000138888892</v>
       </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
       <c r="C26" s="1">
         <v>2511.9</v>
       </c>
@@ -620,6 +672,9 @@
       <c r="A27" s="2">
         <v>45215.041805555556</v>
       </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
       <c r="C27" s="1">
         <v>2510.8000000000002</v>
       </c>
@@ -628,6 +683,9 @@
       <c r="A28" s="2">
         <v>45215.083472222221</v>
       </c>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
       <c r="C28" s="1">
         <v>2511.3000000000002</v>
       </c>
@@ -636,6 +694,9 @@
       <c r="A29" s="2">
         <v>45215.125138888892</v>
       </c>
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
       <c r="C29" s="1">
         <v>2510.8000000000002</v>
       </c>
@@ -644,6 +705,9 @@
       <c r="A30" s="2">
         <v>45215.166805555556</v>
       </c>
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
       <c r="C30" s="1">
         <v>2510.1</v>
       </c>
@@ -652,6 +716,9 @@
       <c r="A31" s="2">
         <v>45215.208472222221</v>
       </c>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
       <c r="C31" s="1">
         <v>2512.8000000000002</v>
       </c>
@@ -660,6 +727,9 @@
       <c r="A32" s="2">
         <v>45215.250138888892</v>
       </c>
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
       <c r="C32" s="1">
         <v>2513.6999999999998</v>
       </c>
@@ -668,6 +738,9 @@
       <c r="A33" s="2">
         <v>45215.291805555556</v>
       </c>
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
       <c r="C33" s="1">
         <v>2503.9</v>
       </c>
@@ -676,6 +749,9 @@
       <c r="A34" s="2">
         <v>45215.333472222221</v>
       </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
       <c r="C34" s="1">
         <v>2502</v>
       </c>
@@ -684,6 +760,9 @@
       <c r="A35" s="2">
         <v>45215.375138888892</v>
       </c>
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
       <c r="C35" s="1">
         <v>2500.1</v>
       </c>
@@ -692,6 +771,9 @@
       <c r="A36" s="2">
         <v>45215.416805555556</v>
       </c>
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
       <c r="C36" s="1">
         <v>2496.6</v>
       </c>
@@ -700,6 +782,9 @@
       <c r="A37" s="2">
         <v>45215.458472222221</v>
       </c>
+      <c r="B37" s="3">
+        <v>0</v>
+      </c>
       <c r="C37" s="1">
         <v>2502.1999999999998</v>
       </c>
@@ -708,6 +793,9 @@
       <c r="A38" s="2">
         <v>45215.500138888892</v>
       </c>
+      <c r="B38" s="3">
+        <v>0</v>
+      </c>
       <c r="C38" s="1">
         <v>2503.6999999999998</v>
       </c>
@@ -716,6 +804,9 @@
       <c r="A39" s="2">
         <v>45215.541805555556</v>
       </c>
+      <c r="B39" s="3">
+        <v>0</v>
+      </c>
       <c r="C39" s="1">
         <v>2505.1999999999998</v>
       </c>
@@ -724,6 +815,9 @@
       <c r="A40" s="2">
         <v>45215.583472222221</v>
       </c>
+      <c r="B40" s="3">
+        <v>0</v>
+      </c>
       <c r="C40" s="1">
         <v>2507.6</v>
       </c>
@@ -732,6 +826,9 @@
       <c r="A41" s="2">
         <v>45215.625138888892</v>
       </c>
+      <c r="B41" s="3">
+        <v>0</v>
+      </c>
       <c r="C41" s="1">
         <v>2507</v>
       </c>
@@ -740,6 +837,9 @@
       <c r="A42" s="2">
         <v>45215.666805555556</v>
       </c>
+      <c r="B42" s="3">
+        <v>0</v>
+      </c>
       <c r="C42" s="1">
         <v>2506.1</v>
       </c>
@@ -748,6 +848,9 @@
       <c r="A43" s="2">
         <v>45215.708472222221</v>
       </c>
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
       <c r="C43" s="1">
         <v>2507.3000000000002</v>
       </c>
@@ -756,6 +859,9 @@
       <c r="A44" s="2">
         <v>45215.750138888892</v>
       </c>
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
       <c r="C44" s="1">
         <v>2508.6</v>
       </c>
@@ -764,6 +870,9 @@
       <c r="A45" s="2">
         <v>45215.791805555556</v>
       </c>
+      <c r="B45" s="3">
+        <v>0</v>
+      </c>
       <c r="C45" s="1">
         <v>2508.6</v>
       </c>
@@ -772,6 +881,9 @@
       <c r="A46" s="2">
         <v>45215.833472222221</v>
       </c>
+      <c r="B46" s="3">
+        <v>0</v>
+      </c>
       <c r="C46" s="1">
         <v>2507.3000000000002</v>
       </c>
@@ -780,6 +892,9 @@
       <c r="A47" s="2">
         <v>45215.875138888892</v>
       </c>
+      <c r="B47" s="3">
+        <v>0</v>
+      </c>
       <c r="C47" s="1">
         <v>2509.9</v>
       </c>
@@ -788,6 +903,9 @@
       <c r="A48" s="2">
         <v>45215.916805555556</v>
       </c>
+      <c r="B48" s="3">
+        <v>0</v>
+      </c>
       <c r="C48" s="1">
         <v>2511.3000000000002</v>
       </c>
@@ -796,6 +914,9 @@
       <c r="A49" s="2">
         <v>45215.958472222221</v>
       </c>
+      <c r="B49" s="3">
+        <v>0</v>
+      </c>
       <c r="C49" s="1">
         <v>2522.1999999999998</v>
       </c>
@@ -804,6 +925,9 @@
       <c r="A50" s="2">
         <v>45216.000138888892</v>
       </c>
+      <c r="B50" s="3">
+        <v>0</v>
+      </c>
       <c r="C50" s="1">
         <v>2525.4</v>
       </c>
@@ -812,6 +936,9 @@
       <c r="A51" s="2">
         <v>45216.041805555556</v>
       </c>
+      <c r="B51" s="3">
+        <v>0</v>
+      </c>
       <c r="C51" s="1">
         <v>2559.4</v>
       </c>
@@ -820,6 +947,9 @@
       <c r="A52" s="2">
         <v>45216.083472222221</v>
       </c>
+      <c r="B52" s="3">
+        <v>0</v>
+      </c>
       <c r="C52" s="1">
         <v>2569.1999999999998</v>
       </c>
@@ -828,6 +958,9 @@
       <c r="A53" s="2">
         <v>45216.125138888892</v>
       </c>
+      <c r="B53" s="3">
+        <v>0</v>
+      </c>
       <c r="C53" s="1">
         <v>2553.8000000000002</v>
       </c>
@@ -836,6 +969,9 @@
       <c r="A54" s="2">
         <v>45216.166805555556</v>
       </c>
+      <c r="B54" s="3">
+        <v>0</v>
+      </c>
       <c r="C54" s="1">
         <v>2536.5</v>
       </c>
@@ -844,6 +980,9 @@
       <c r="A55" s="2">
         <v>45216.208472222221</v>
       </c>
+      <c r="B55" s="3">
+        <v>0</v>
+      </c>
       <c r="C55" s="1">
         <v>2528.1</v>
       </c>
@@ -852,6 +991,9 @@
       <c r="A56" s="2">
         <v>45216.250138888892</v>
       </c>
+      <c r="B56" s="3">
+        <v>0</v>
+      </c>
       <c r="C56" s="1">
         <v>2524.6</v>
       </c>
@@ -860,6 +1002,9 @@
       <c r="A57" s="2">
         <v>45216.291805555556</v>
       </c>
+      <c r="B57" s="3">
+        <v>0</v>
+      </c>
       <c r="C57" s="1">
         <v>2519.3000000000002</v>
       </c>
@@ -868,6 +1013,9 @@
       <c r="A58" s="2">
         <v>45216.333472222221</v>
       </c>
+      <c r="B58" s="3">
+        <v>0</v>
+      </c>
       <c r="C58" s="1">
         <v>2515.4</v>
       </c>
@@ -876,6 +1024,9 @@
       <c r="A59" s="2">
         <v>45216.375138888892</v>
       </c>
+      <c r="B59" s="3">
+        <v>0</v>
+      </c>
       <c r="C59" s="1">
         <v>2515</v>
       </c>
@@ -884,6 +1035,9 @@
       <c r="A60" s="2">
         <v>45216.416805555556</v>
       </c>
+      <c r="B60" s="3">
+        <v>0</v>
+      </c>
       <c r="C60" s="1">
         <v>2513</v>
       </c>
@@ -892,6 +1046,9 @@
       <c r="A61" s="2">
         <v>45216.458472222221</v>
       </c>
+      <c r="B61" s="3">
+        <v>0</v>
+      </c>
       <c r="C61" s="1">
         <v>2512.4</v>
       </c>
@@ -900,6 +1057,9 @@
       <c r="A62" s="2">
         <v>45216.500138888892</v>
       </c>
+      <c r="B62" s="3">
+        <v>0</v>
+      </c>
       <c r="C62" s="1">
         <v>2509.4</v>
       </c>
@@ -908,6 +1068,9 @@
       <c r="A63" s="2">
         <v>45216.541805555556</v>
       </c>
+      <c r="B63" s="3">
+        <v>0</v>
+      </c>
       <c r="C63" s="1">
         <v>2507.9</v>
       </c>
@@ -916,6 +1079,9 @@
       <c r="A64" s="2">
         <v>45216.583472222221</v>
       </c>
+      <c r="B64" s="3">
+        <v>0</v>
+      </c>
       <c r="C64" s="1">
         <v>2509.4</v>
       </c>
@@ -924,6 +1090,9 @@
       <c r="A65" s="2">
         <v>45216.625138888892</v>
       </c>
+      <c r="B65" s="3">
+        <v>0</v>
+      </c>
       <c r="C65" s="1">
         <v>2540.5</v>
       </c>
@@ -932,6 +1101,9 @@
       <c r="A66" s="2">
         <v>45216.666805555556</v>
       </c>
+      <c r="B66" s="3">
+        <v>0</v>
+      </c>
       <c r="C66" s="1">
         <v>2615.8000000000002</v>
       </c>
@@ -940,6 +1112,9 @@
       <c r="A67" s="2">
         <v>45216.708472222221</v>
       </c>
+      <c r="B67" s="3">
+        <v>0</v>
+      </c>
       <c r="C67" s="1">
         <v>2661.7</v>
       </c>
@@ -948,6 +1123,9 @@
       <c r="A68" s="2">
         <v>45216.750138888892</v>
       </c>
+      <c r="B68" s="3">
+        <v>0</v>
+      </c>
       <c r="C68" s="1">
         <v>2683.4</v>
       </c>
@@ -956,7 +1134,9 @@
       <c r="A69" s="2">
         <v>45216.791805555556</v>
       </c>
-      <c r="B69" s="2"/>
+      <c r="B69" s="3">
+        <v>0</v>
+      </c>
       <c r="C69" s="1">
         <v>2655.5</v>
       </c>
@@ -966,7 +1146,9 @@
       <c r="A70" s="2">
         <v>45216.833472222221</v>
       </c>
-      <c r="B70" s="2"/>
+      <c r="B70" s="3">
+        <v>0</v>
+      </c>
       <c r="C70" s="1">
         <v>2654</v>
       </c>
@@ -976,7 +1158,9 @@
       <c r="A71" s="2">
         <v>45216.875138888892</v>
       </c>
-      <c r="B71" s="2"/>
+      <c r="B71" s="3">
+        <v>0</v>
+      </c>
       <c r="C71" s="1">
         <v>2671.7</v>
       </c>
@@ -986,7 +1170,9 @@
       <c r="A72" s="2">
         <v>45216.916805555556</v>
       </c>
-      <c r="B72" s="2"/>
+      <c r="B72" s="3">
+        <v>0</v>
+      </c>
       <c r="C72" s="1">
         <v>2688.2</v>
       </c>
@@ -996,7 +1182,9 @@
       <c r="A73" s="2">
         <v>45216.958472222221</v>
       </c>
-      <c r="B73" s="2"/>
+      <c r="B73" s="3">
+        <v>0</v>
+      </c>
       <c r="C73" s="1">
         <v>2702.3</v>
       </c>
@@ -1006,7 +1194,9 @@
       <c r="A74" s="2">
         <v>45217.000138888892</v>
       </c>
-      <c r="B74" s="2"/>
+      <c r="B74" s="3">
+        <v>0</v>
+      </c>
       <c r="C74" s="1">
         <v>2716</v>
       </c>
@@ -1016,7 +1206,9 @@
       <c r="A75" s="2">
         <v>45217.041805555556</v>
       </c>
-      <c r="B75" s="2"/>
+      <c r="B75" s="3">
+        <v>0</v>
+      </c>
       <c r="C75" s="1">
         <v>2715.9</v>
       </c>
@@ -1026,7 +1218,9 @@
       <c r="A76" s="2">
         <v>45217.083472222221</v>
       </c>
-      <c r="B76" s="2"/>
+      <c r="B76" s="3">
+        <v>0</v>
+      </c>
       <c r="C76" s="1">
         <v>2716.8</v>
       </c>
@@ -1036,7 +1230,9 @@
       <c r="A77" s="2">
         <v>45217.125138888892</v>
       </c>
-      <c r="B77" s="2"/>
+      <c r="B77" s="3">
+        <v>0</v>
+      </c>
       <c r="C77" s="1">
         <v>2701.6</v>
       </c>
@@ -1046,7 +1242,9 @@
       <c r="A78" s="2">
         <v>45217.166805555556</v>
       </c>
-      <c r="B78" s="2"/>
+      <c r="B78" s="3">
+        <v>0</v>
+      </c>
       <c r="C78" s="1">
         <v>2672.5</v>
       </c>
@@ -1056,7 +1254,9 @@
       <c r="A79" s="2">
         <v>45217.208472222221</v>
       </c>
-      <c r="B79" s="2"/>
+      <c r="B79" s="3">
+        <v>0</v>
+      </c>
       <c r="C79" s="1">
         <v>2626.5</v>
       </c>
@@ -1066,7 +1266,9 @@
       <c r="A80" s="2">
         <v>45217.250138888892</v>
       </c>
-      <c r="B80" s="2"/>
+      <c r="B80" s="3">
+        <v>0</v>
+      </c>
       <c r="C80" s="1">
         <v>2599</v>
       </c>
@@ -1076,7 +1278,9 @@
       <c r="A81" s="2">
         <v>45217.291805555556</v>
       </c>
-      <c r="B81" s="2"/>
+      <c r="B81" s="3">
+        <v>0</v>
+      </c>
       <c r="C81" s="1">
         <v>2577.6</v>
       </c>
@@ -1086,7 +1290,9 @@
       <c r="A82" s="2">
         <v>45217.333472222221</v>
       </c>
-      <c r="B82" s="2"/>
+      <c r="B82" s="3">
+        <v>0</v>
+      </c>
       <c r="C82" s="1">
         <v>2552.9</v>
       </c>
@@ -1096,11 +1302,79 @@
       <c r="A83" s="2">
         <v>45217.375138888892</v>
       </c>
-      <c r="B83" s="2"/>
+      <c r="B83" s="3">
+        <v>0</v>
+      </c>
       <c r="C83" s="1">
         <v>2538.4</v>
       </c>
       <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>45217.416805555556</v>
+      </c>
+      <c r="B84" s="3">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1">
+        <v>2525.1999999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>45217.458472222221</v>
+      </c>
+      <c r="B85" s="3">
+        <v>0</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>45217.500138888892</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2511.6999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>45217.541805555556</v>
+      </c>
+      <c r="B87" s="3">
+        <v>0</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2505.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>45217.583472222221</v>
+      </c>
+      <c r="B88" s="3">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2502.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>45217.625138888892</v>
+      </c>
+      <c r="B89" s="3">
+        <v>0</v>
+      </c>
+      <c r="C89" s="1">
+        <v>2496.1</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A50:D68">
@@ -1108,5 +1382,6 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
+++ b/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
@@ -367,8 +367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
+++ b/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9F102A25-3C22-47ED-BBFC-9D009813D79C}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{38B55769-B6D5-4F3A-B4D4-C770FDB0CA43}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Chuva (mm)</t>
   </si>
@@ -37,6 +37,33 @@
   </si>
   <si>
     <t>Data-Hora</t>
+  </si>
+  <si>
+    <t>2641.5</t>
+  </si>
+  <si>
+    <t>2668.3</t>
+  </si>
+  <si>
+    <t>2658.3</t>
+  </si>
+  <si>
+    <t>2635.2</t>
+  </si>
+  <si>
+    <t>2627.8</t>
+  </si>
+  <si>
+    <t>2602.3</t>
+  </si>
+  <si>
+    <t>2553.6</t>
+  </si>
+  <si>
+    <t>2539.9</t>
+  </si>
+  <si>
+    <t>2532.6</t>
   </si>
 </sst>
 </file>
@@ -78,13 +105,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,6 +1406,204 @@
         <v>2496.1</v>
       </c>
     </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>45217.666805555556</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0</v>
+      </c>
+      <c r="C90" s="1">
+        <v>2502.8000000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>45217.708472222221</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0</v>
+      </c>
+      <c r="C91" s="1">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>45217.750138888892</v>
+      </c>
+      <c r="B92" s="3">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1">
+        <v>2505.8000000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>45217.791805555556</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2509.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>45217.833472222221</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0</v>
+      </c>
+      <c r="C94" s="1">
+        <v>2505.1999999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>45217.875138888892</v>
+      </c>
+      <c r="B95" s="3">
+        <v>0</v>
+      </c>
+      <c r="C95" s="1">
+        <v>2511.3000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>45217.916805555556</v>
+      </c>
+      <c r="B96" s="3">
+        <v>0</v>
+      </c>
+      <c r="C96" s="1">
+        <v>2537.1999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>45217.958472222221</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0</v>
+      </c>
+      <c r="C97" s="1">
+        <v>2575.1999999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>45218.000138888892</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>45218.041805555556</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>45218.083472222221</v>
+      </c>
+      <c r="B100" s="3">
+        <v>0</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>45218.125138888892</v>
+      </c>
+      <c r="B101" s="3">
+        <v>0</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>45218.166805555556</v>
+      </c>
+      <c r="B102" s="3">
+        <v>0</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>45218.208472222221</v>
+      </c>
+      <c r="B103" s="3">
+        <v>0</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>45218.250138888892</v>
+      </c>
+      <c r="B104" s="3">
+        <v>0</v>
+      </c>
+      <c r="C104" s="1">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>45218.291805555556</v>
+      </c>
+      <c r="B105" s="3">
+        <v>0</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>45218.333472222221</v>
+      </c>
+      <c r="B106" s="3">
+        <v>0</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>45218.375138888892</v>
+      </c>
+      <c r="B107" s="3">
+        <v>0</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A50:D68">
     <sortCondition ref="A50:A68"/>

--- a/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
+++ b/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{38B55769-B6D5-4F3A-B4D4-C770FDB0CA43}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C5C1E8AD-1363-4048-8C7B-BFA19421DBC2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,6 +1604,72 @@
         <v>12</v>
       </c>
     </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>45218.416805555556</v>
+      </c>
+      <c r="B108" s="3">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>2528.3000000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>45218.458472222221</v>
+      </c>
+      <c r="B109" s="3">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>2519.6999999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>45218.500138888892</v>
+      </c>
+      <c r="B110" s="3">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>2518.6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>45218.541805555556</v>
+      </c>
+      <c r="B111" s="3">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>2513.3000000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>45218.583472222221</v>
+      </c>
+      <c r="B112" s="3">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>2512.9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>45218.625138888892</v>
+      </c>
+      <c r="B113" s="3">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>2533.6</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A50:D68">
     <sortCondition ref="A50:A68"/>

--- a/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
+++ b/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
@@ -397,7 +397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
       <selection activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>

--- a/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
+++ b/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C5C1E8AD-1363-4048-8C7B-BFA19421DBC2}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E0B8E78B-5816-4C85-9477-A7C1EE3A2C0A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="G111" sqref="G111"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="H122" sqref="H122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1670,6 +1670,171 @@
         <v>2533.6</v>
       </c>
     </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>45219.583472222221</v>
+      </c>
+      <c r="B114" s="3">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>2709.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>45219.541805555556</v>
+      </c>
+      <c r="B115" s="3">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>45219.500138888892</v>
+      </c>
+      <c r="B116" s="3">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>2684.7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>45219.458472222221</v>
+      </c>
+      <c r="B117" s="3">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>2662.3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>45219.416805555556</v>
+      </c>
+      <c r="B118" s="3">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>45219.375138888892</v>
+      </c>
+      <c r="B119" s="3">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>2563.4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>45219.333472222221</v>
+      </c>
+      <c r="B120" s="3">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>2582.6999999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>45219.291805555556</v>
+      </c>
+      <c r="B121" s="3">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>2607.6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>45219.250138888892</v>
+      </c>
+      <c r="B122" s="3">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>2657.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>45219.208472222221</v>
+      </c>
+      <c r="B123" s="3">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>2690.9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>45219.166805555556</v>
+      </c>
+      <c r="B124" s="3">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>2708.3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>45219.125138888892</v>
+      </c>
+      <c r="B125" s="3">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>2728.8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>45219.083472222221</v>
+      </c>
+      <c r="B126" s="3">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>2725.2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>45219.041805555556</v>
+      </c>
+      <c r="B127" s="3">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>45219.000138888892</v>
+      </c>
+      <c r="B128" s="3">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>2721.3</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A50:D68">
     <sortCondition ref="A50:A68"/>

--- a/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
+++ b/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C5C1E8AD-1363-4048-8C7B-BFA19421DBC2}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E0B8E78B-5816-4C85-9477-A7C1EE3A2C0A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="G111" sqref="G111"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="H122" sqref="H122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1670,6 +1670,171 @@
         <v>2533.6</v>
       </c>
     </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>45219.583472222221</v>
+      </c>
+      <c r="B114" s="3">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>2709.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>45219.541805555556</v>
+      </c>
+      <c r="B115" s="3">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>45219.500138888892</v>
+      </c>
+      <c r="B116" s="3">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>2684.7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>45219.458472222221</v>
+      </c>
+      <c r="B117" s="3">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>2662.3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>45219.416805555556</v>
+      </c>
+      <c r="B118" s="3">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>45219.375138888892</v>
+      </c>
+      <c r="B119" s="3">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>2563.4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>45219.333472222221</v>
+      </c>
+      <c r="B120" s="3">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>2582.6999999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>45219.291805555556</v>
+      </c>
+      <c r="B121" s="3">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>2607.6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>45219.250138888892</v>
+      </c>
+      <c r="B122" s="3">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>2657.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>45219.208472222221</v>
+      </c>
+      <c r="B123" s="3">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>2690.9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>45219.166805555556</v>
+      </c>
+      <c r="B124" s="3">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>2708.3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>45219.125138888892</v>
+      </c>
+      <c r="B125" s="3">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>2728.8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>45219.083472222221</v>
+      </c>
+      <c r="B126" s="3">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>2725.2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>45219.041805555556</v>
+      </c>
+      <c r="B127" s="3">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>45219.000138888892</v>
+      </c>
+      <c r="B128" s="3">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>2721.3</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A50:D68">
     <sortCondition ref="A50:A68"/>

--- a/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
+++ b/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E0B8E78B-5816-4C85-9477-A7C1EE3A2C0A}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3AE5BD2C-13EE-411A-9CA8-F88CF88C7B82}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Chuva (mm)</t>
   </si>
@@ -64,6 +64,30 @@
   </si>
   <si>
     <t>2532.6</t>
+  </si>
+  <si>
+    <t>2615.1</t>
+  </si>
+  <si>
+    <t>2660.3</t>
+  </si>
+  <si>
+    <t>2682.4</t>
+  </si>
+  <si>
+    <t>2697.4</t>
+  </si>
+  <si>
+    <t>2703.6</t>
+  </si>
+  <si>
+    <t>2695.2</t>
+  </si>
+  <si>
+    <t>2709.2</t>
+  </si>
+  <si>
+    <t>2719.9</t>
   </si>
 </sst>
 </file>
@@ -111,8 +135,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -395,16 +421,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:D178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="H122" sqref="H122"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="G161" sqref="G161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -413,7 +439,7 @@
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -427,7 +453,7 @@
       <c r="A2" s="2">
         <v>45200.000138888892</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>0</v>
       </c>
       <c r="C2" s="1">
@@ -438,7 +464,7 @@
       <c r="A3" s="2">
         <v>45200.041805555556</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>0</v>
       </c>
       <c r="C3" s="1">
@@ -449,7 +475,7 @@
       <c r="A4" s="2">
         <v>45200.083472222221</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="1">
@@ -460,7 +486,7 @@
       <c r="A5" s="2">
         <v>45200.125138888892</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>0</v>
       </c>
       <c r="C5" s="1">
@@ -471,7 +497,7 @@
       <c r="A6" s="2">
         <v>45200.166805555556</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>0</v>
       </c>
       <c r="C6" s="1">
@@ -482,7 +508,7 @@
       <c r="A7" s="2">
         <v>45200.208472222221</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>0</v>
       </c>
       <c r="C7" s="1">
@@ -493,7 +519,7 @@
       <c r="A8" s="2">
         <v>45200.250138888892</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>0</v>
       </c>
       <c r="C8" s="1">
@@ -504,7 +530,7 @@
       <c r="A9" s="2">
         <v>45200.291805555556</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>0</v>
       </c>
       <c r="C9" s="1">
@@ -515,7 +541,7 @@
       <c r="A10" s="2">
         <v>45200.333472222221</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>0</v>
       </c>
       <c r="C10" s="1">
@@ -526,7 +552,7 @@
       <c r="A11" s="2">
         <v>45200.375138888892</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>0</v>
       </c>
       <c r="C11" s="1">
@@ -537,7 +563,7 @@
       <c r="A12" s="2">
         <v>45200.416805555556</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>0</v>
       </c>
       <c r="C12" s="1">
@@ -548,7 +574,7 @@
       <c r="A13" s="2">
         <v>45200.458472222221</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>0</v>
       </c>
       <c r="C13" s="1">
@@ -559,7 +585,7 @@
       <c r="A14" s="2">
         <v>45200.500138888892</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>0</v>
       </c>
       <c r="C14" s="1">
@@ -570,7 +596,7 @@
       <c r="A15" s="2">
         <v>45200.541805555556</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>0</v>
       </c>
       <c r="C15" s="1">
@@ -581,7 +607,7 @@
       <c r="A16" s="2">
         <v>45200.583472222221</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>0</v>
       </c>
       <c r="C16" s="1">
@@ -592,7 +618,7 @@
       <c r="A17" s="2">
         <v>45200.625138888892</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>0</v>
       </c>
       <c r="C17" s="1">
@@ -603,7 +629,7 @@
       <c r="A18" s="2">
         <v>45200.666805555556</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>0</v>
       </c>
       <c r="C18" s="1">
@@ -614,7 +640,7 @@
       <c r="A19" s="2">
         <v>45200.708472222221</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>0</v>
       </c>
       <c r="C19" s="1">
@@ -625,7 +651,7 @@
       <c r="A20" s="2">
         <v>45200.750138888892</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>0</v>
       </c>
       <c r="C20" s="1">
@@ -636,7 +662,7 @@
       <c r="A21" s="2">
         <v>45200.791805555556</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>0</v>
       </c>
       <c r="C21" s="1">
@@ -647,7 +673,7 @@
       <c r="A22" s="2">
         <v>45200.833472222221</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <v>0</v>
       </c>
       <c r="C22" s="1">
@@ -658,7 +684,7 @@
       <c r="A23" s="2">
         <v>45200.875138888892</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>0</v>
       </c>
       <c r="C23" s="1">
@@ -669,7 +695,7 @@
       <c r="A24" s="2">
         <v>45200.916805555556</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <v>0</v>
       </c>
       <c r="C24" s="1">
@@ -680,7 +706,7 @@
       <c r="A25" s="2">
         <v>45200.958472222221</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <v>0</v>
       </c>
       <c r="C25" s="1">
@@ -691,7 +717,7 @@
       <c r="A26" s="2">
         <v>45215.000138888892</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <v>0</v>
       </c>
       <c r="C26" s="1">
@@ -702,7 +728,7 @@
       <c r="A27" s="2">
         <v>45215.041805555556</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <v>0</v>
       </c>
       <c r="C27" s="1">
@@ -713,7 +739,7 @@
       <c r="A28" s="2">
         <v>45215.083472222221</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <v>0</v>
       </c>
       <c r="C28" s="1">
@@ -724,7 +750,7 @@
       <c r="A29" s="2">
         <v>45215.125138888892</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <v>0</v>
       </c>
       <c r="C29" s="1">
@@ -735,7 +761,7 @@
       <c r="A30" s="2">
         <v>45215.166805555556</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="4">
         <v>0</v>
       </c>
       <c r="C30" s="1">
@@ -746,7 +772,7 @@
       <c r="A31" s="2">
         <v>45215.208472222221</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="4">
         <v>0</v>
       </c>
       <c r="C31" s="1">
@@ -757,7 +783,7 @@
       <c r="A32" s="2">
         <v>45215.250138888892</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <v>0</v>
       </c>
       <c r="C32" s="1">
@@ -768,7 +794,7 @@
       <c r="A33" s="2">
         <v>45215.291805555556</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="4">
         <v>0</v>
       </c>
       <c r="C33" s="1">
@@ -779,7 +805,7 @@
       <c r="A34" s="2">
         <v>45215.333472222221</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="4">
         <v>0</v>
       </c>
       <c r="C34" s="1">
@@ -790,7 +816,7 @@
       <c r="A35" s="2">
         <v>45215.375138888892</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="4">
         <v>0</v>
       </c>
       <c r="C35" s="1">
@@ -801,7 +827,7 @@
       <c r="A36" s="2">
         <v>45215.416805555556</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="4">
         <v>0</v>
       </c>
       <c r="C36" s="1">
@@ -812,7 +838,7 @@
       <c r="A37" s="2">
         <v>45215.458472222221</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="4">
         <v>0</v>
       </c>
       <c r="C37" s="1">
@@ -823,7 +849,7 @@
       <c r="A38" s="2">
         <v>45215.500138888892</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="4">
         <v>0</v>
       </c>
       <c r="C38" s="1">
@@ -834,7 +860,7 @@
       <c r="A39" s="2">
         <v>45215.541805555556</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="4">
         <v>0</v>
       </c>
       <c r="C39" s="1">
@@ -845,7 +871,7 @@
       <c r="A40" s="2">
         <v>45215.583472222221</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="4">
         <v>0</v>
       </c>
       <c r="C40" s="1">
@@ -856,7 +882,7 @@
       <c r="A41" s="2">
         <v>45215.625138888892</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="4">
         <v>0</v>
       </c>
       <c r="C41" s="1">
@@ -867,7 +893,7 @@
       <c r="A42" s="2">
         <v>45215.666805555556</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="4">
         <v>0</v>
       </c>
       <c r="C42" s="1">
@@ -878,7 +904,7 @@
       <c r="A43" s="2">
         <v>45215.708472222221</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="4">
         <v>0</v>
       </c>
       <c r="C43" s="1">
@@ -889,7 +915,7 @@
       <c r="A44" s="2">
         <v>45215.750138888892</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="4">
         <v>0</v>
       </c>
       <c r="C44" s="1">
@@ -900,7 +926,7 @@
       <c r="A45" s="2">
         <v>45215.791805555556</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="4">
         <v>0</v>
       </c>
       <c r="C45" s="1">
@@ -911,7 +937,7 @@
       <c r="A46" s="2">
         <v>45215.833472222221</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="4">
         <v>0</v>
       </c>
       <c r="C46" s="1">
@@ -922,7 +948,7 @@
       <c r="A47" s="2">
         <v>45215.875138888892</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="4">
         <v>0</v>
       </c>
       <c r="C47" s="1">
@@ -933,7 +959,7 @@
       <c r="A48" s="2">
         <v>45215.916805555556</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="4">
         <v>0</v>
       </c>
       <c r="C48" s="1">
@@ -944,7 +970,7 @@
       <c r="A49" s="2">
         <v>45215.958472222221</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="4">
         <v>0</v>
       </c>
       <c r="C49" s="1">
@@ -955,7 +981,7 @@
       <c r="A50" s="2">
         <v>45216.000138888892</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="4">
         <v>0</v>
       </c>
       <c r="C50" s="1">
@@ -966,7 +992,7 @@
       <c r="A51" s="2">
         <v>45216.041805555556</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="4">
         <v>0</v>
       </c>
       <c r="C51" s="1">
@@ -977,7 +1003,7 @@
       <c r="A52" s="2">
         <v>45216.083472222221</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="4">
         <v>0</v>
       </c>
       <c r="C52" s="1">
@@ -988,7 +1014,7 @@
       <c r="A53" s="2">
         <v>45216.125138888892</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="4">
         <v>0</v>
       </c>
       <c r="C53" s="1">
@@ -999,7 +1025,7 @@
       <c r="A54" s="2">
         <v>45216.166805555556</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="4">
         <v>0</v>
       </c>
       <c r="C54" s="1">
@@ -1010,7 +1036,7 @@
       <c r="A55" s="2">
         <v>45216.208472222221</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="4">
         <v>0</v>
       </c>
       <c r="C55" s="1">
@@ -1021,7 +1047,7 @@
       <c r="A56" s="2">
         <v>45216.250138888892</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="4">
         <v>0</v>
       </c>
       <c r="C56" s="1">
@@ -1032,7 +1058,7 @@
       <c r="A57" s="2">
         <v>45216.291805555556</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="4">
         <v>0</v>
       </c>
       <c r="C57" s="1">
@@ -1043,7 +1069,7 @@
       <c r="A58" s="2">
         <v>45216.333472222221</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="4">
         <v>0</v>
       </c>
       <c r="C58" s="1">
@@ -1054,7 +1080,7 @@
       <c r="A59" s="2">
         <v>45216.375138888892</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="4">
         <v>0</v>
       </c>
       <c r="C59" s="1">
@@ -1065,7 +1091,7 @@
       <c r="A60" s="2">
         <v>45216.416805555556</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="4">
         <v>0</v>
       </c>
       <c r="C60" s="1">
@@ -1076,7 +1102,7 @@
       <c r="A61" s="2">
         <v>45216.458472222221</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="4">
         <v>0</v>
       </c>
       <c r="C61" s="1">
@@ -1087,7 +1113,7 @@
       <c r="A62" s="2">
         <v>45216.500138888892</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="4">
         <v>0</v>
       </c>
       <c r="C62" s="1">
@@ -1098,7 +1124,7 @@
       <c r="A63" s="2">
         <v>45216.541805555556</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="4">
         <v>0</v>
       </c>
       <c r="C63" s="1">
@@ -1109,7 +1135,7 @@
       <c r="A64" s="2">
         <v>45216.583472222221</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="4">
         <v>0</v>
       </c>
       <c r="C64" s="1">
@@ -1120,7 +1146,7 @@
       <c r="A65" s="2">
         <v>45216.625138888892</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="4">
         <v>0</v>
       </c>
       <c r="C65" s="1">
@@ -1131,7 +1157,7 @@
       <c r="A66" s="2">
         <v>45216.666805555556</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="4">
         <v>0</v>
       </c>
       <c r="C66" s="1">
@@ -1142,7 +1168,7 @@
       <c r="A67" s="2">
         <v>45216.708472222221</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="4">
         <v>0</v>
       </c>
       <c r="C67" s="1">
@@ -1153,7 +1179,7 @@
       <c r="A68" s="2">
         <v>45216.750138888892</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="4">
         <v>0</v>
       </c>
       <c r="C68" s="1">
@@ -1164,7 +1190,7 @@
       <c r="A69" s="2">
         <v>45216.791805555556</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="4">
         <v>0</v>
       </c>
       <c r="C69" s="1">
@@ -1176,7 +1202,7 @@
       <c r="A70" s="2">
         <v>45216.833472222221</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="4">
         <v>0</v>
       </c>
       <c r="C70" s="1">
@@ -1188,7 +1214,7 @@
       <c r="A71" s="2">
         <v>45216.875138888892</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="4">
         <v>0</v>
       </c>
       <c r="C71" s="1">
@@ -1200,7 +1226,7 @@
       <c r="A72" s="2">
         <v>45216.916805555556</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="4">
         <v>0</v>
       </c>
       <c r="C72" s="1">
@@ -1212,7 +1238,7 @@
       <c r="A73" s="2">
         <v>45216.958472222221</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="4">
         <v>0</v>
       </c>
       <c r="C73" s="1">
@@ -1224,7 +1250,7 @@
       <c r="A74" s="2">
         <v>45217.000138888892</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="4">
         <v>0</v>
       </c>
       <c r="C74" s="1">
@@ -1236,7 +1262,7 @@
       <c r="A75" s="2">
         <v>45217.041805555556</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="4">
         <v>0</v>
       </c>
       <c r="C75" s="1">
@@ -1248,7 +1274,7 @@
       <c r="A76" s="2">
         <v>45217.083472222221</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="4">
         <v>0</v>
       </c>
       <c r="C76" s="1">
@@ -1260,7 +1286,7 @@
       <c r="A77" s="2">
         <v>45217.125138888892</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="4">
         <v>0</v>
       </c>
       <c r="C77" s="1">
@@ -1272,7 +1298,7 @@
       <c r="A78" s="2">
         <v>45217.166805555556</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="4">
         <v>0</v>
       </c>
       <c r="C78" s="1">
@@ -1284,7 +1310,7 @@
       <c r="A79" s="2">
         <v>45217.208472222221</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="4">
         <v>0</v>
       </c>
       <c r="C79" s="1">
@@ -1296,7 +1322,7 @@
       <c r="A80" s="2">
         <v>45217.250138888892</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="4">
         <v>0</v>
       </c>
       <c r="C80" s="1">
@@ -1308,7 +1334,7 @@
       <c r="A81" s="2">
         <v>45217.291805555556</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="4">
         <v>0</v>
       </c>
       <c r="C81" s="1">
@@ -1320,7 +1346,7 @@
       <c r="A82" s="2">
         <v>45217.333472222221</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="4">
         <v>0</v>
       </c>
       <c r="C82" s="1">
@@ -1332,7 +1358,7 @@
       <c r="A83" s="2">
         <v>45217.375138888892</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="4">
         <v>0</v>
       </c>
       <c r="C83" s="1">
@@ -1344,7 +1370,7 @@
       <c r="A84" s="2">
         <v>45217.416805555556</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="4">
         <v>0</v>
       </c>
       <c r="C84" s="1">
@@ -1355,7 +1381,7 @@
       <c r="A85" s="2">
         <v>45217.458472222221</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="4">
         <v>0</v>
       </c>
       <c r="C85" s="1">
@@ -1366,7 +1392,7 @@
       <c r="A86" s="2">
         <v>45217.500138888892</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="4">
         <v>0</v>
       </c>
       <c r="C86" s="1">
@@ -1377,7 +1403,7 @@
       <c r="A87" s="2">
         <v>45217.541805555556</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="4">
         <v>0</v>
       </c>
       <c r="C87" s="1">
@@ -1388,7 +1414,7 @@
       <c r="A88" s="2">
         <v>45217.583472222221</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="4">
         <v>0</v>
       </c>
       <c r="C88" s="1">
@@ -1399,7 +1425,7 @@
       <c r="A89" s="2">
         <v>45217.625138888892</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="4">
         <v>0</v>
       </c>
       <c r="C89" s="1">
@@ -1407,10 +1433,10 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
+      <c r="A90" s="3">
         <v>45217.666805555556</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="4">
         <v>0</v>
       </c>
       <c r="C90" s="1">
@@ -1418,10 +1444,10 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
+      <c r="A91" s="3">
         <v>45217.708472222221</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="4">
         <v>0</v>
       </c>
       <c r="C91" s="1">
@@ -1429,10 +1455,10 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
+      <c r="A92" s="3">
         <v>45217.750138888892</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="4">
         <v>0</v>
       </c>
       <c r="C92" s="1">
@@ -1440,10 +1466,10 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
+      <c r="A93" s="3">
         <v>45217.791805555556</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="4">
         <v>0</v>
       </c>
       <c r="C93" s="1">
@@ -1451,10 +1477,10 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="4">
+      <c r="A94" s="3">
         <v>45217.833472222221</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="4">
         <v>0</v>
       </c>
       <c r="C94" s="1">
@@ -1462,10 +1488,10 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="4">
+      <c r="A95" s="3">
         <v>45217.875138888892</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="4">
         <v>0</v>
       </c>
       <c r="C95" s="1">
@@ -1473,10 +1499,10 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
+      <c r="A96" s="3">
         <v>45217.916805555556</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="4">
         <v>0</v>
       </c>
       <c r="C96" s="1">
@@ -1484,10 +1510,10 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="4">
+      <c r="A97" s="3">
         <v>45217.958472222221</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="4">
         <v>0</v>
       </c>
       <c r="C97" s="1">
@@ -1498,7 +1524,7 @@
       <c r="A98" s="2">
         <v>45218.000138888892</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="4">
         <v>0</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -1509,7 +1535,7 @@
       <c r="A99" s="2">
         <v>45218.041805555556</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="4">
         <v>0</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -1520,7 +1546,7 @@
       <c r="A100" s="2">
         <v>45218.083472222221</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="4">
         <v>0</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -1531,7 +1557,7 @@
       <c r="A101" s="2">
         <v>45218.125138888892</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="4">
         <v>0</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -1542,7 +1568,7 @@
       <c r="A102" s="2">
         <v>45218.166805555556</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="4">
         <v>0</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -1553,7 +1579,7 @@
       <c r="A103" s="2">
         <v>45218.208472222221</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="4">
         <v>0</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -1564,7 +1590,7 @@
       <c r="A104" s="2">
         <v>45218.250138888892</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="4">
         <v>0</v>
       </c>
       <c r="C104" s="1">
@@ -1575,7 +1601,7 @@
       <c r="A105" s="2">
         <v>45218.291805555556</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="4">
         <v>0</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -1586,7 +1612,7 @@
       <c r="A106" s="2">
         <v>45218.333472222221</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="4">
         <v>0</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -1597,7 +1623,7 @@
       <c r="A107" s="2">
         <v>45218.375138888892</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="4">
         <v>0</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -1608,10 +1634,10 @@
       <c r="A108" s="2">
         <v>45218.416805555556</v>
       </c>
-      <c r="B108" s="3">
-        <v>0</v>
-      </c>
-      <c r="C108">
+      <c r="B108" s="4">
+        <v>0</v>
+      </c>
+      <c r="C108" s="1">
         <v>2528.3000000000002</v>
       </c>
     </row>
@@ -1619,10 +1645,10 @@
       <c r="A109" s="2">
         <v>45218.458472222221</v>
       </c>
-      <c r="B109" s="3">
-        <v>0</v>
-      </c>
-      <c r="C109">
+      <c r="B109" s="4">
+        <v>0</v>
+      </c>
+      <c r="C109" s="1">
         <v>2519.6999999999998</v>
       </c>
     </row>
@@ -1630,10 +1656,10 @@
       <c r="A110" s="2">
         <v>45218.500138888892</v>
       </c>
-      <c r="B110" s="3">
-        <v>0</v>
-      </c>
-      <c r="C110">
+      <c r="B110" s="4">
+        <v>0</v>
+      </c>
+      <c r="C110" s="1">
         <v>2518.6</v>
       </c>
     </row>
@@ -1641,10 +1667,10 @@
       <c r="A111" s="2">
         <v>45218.541805555556</v>
       </c>
-      <c r="B111" s="3">
-        <v>0</v>
-      </c>
-      <c r="C111">
+      <c r="B111" s="4">
+        <v>0</v>
+      </c>
+      <c r="C111" s="1">
         <v>2513.3000000000002</v>
       </c>
     </row>
@@ -1652,10 +1678,10 @@
       <c r="A112" s="2">
         <v>45218.583472222221</v>
       </c>
-      <c r="B112" s="3">
-        <v>0</v>
-      </c>
-      <c r="C112">
+      <c r="B112" s="4">
+        <v>0</v>
+      </c>
+      <c r="C112" s="1">
         <v>2512.9</v>
       </c>
     </row>
@@ -1663,181 +1689,595 @@
       <c r="A113" s="2">
         <v>45218.625138888892</v>
       </c>
-      <c r="B113" s="3">
-        <v>0</v>
-      </c>
-      <c r="C113">
+      <c r="B113" s="4">
+        <v>0</v>
+      </c>
+      <c r="C113" s="1">
         <v>2533.6</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>45219.583472222221</v>
-      </c>
-      <c r="B114" s="3">
-        <v>0</v>
-      </c>
-      <c r="C114">
-        <v>2709.5</v>
+        <v>45218.666805555556</v>
+      </c>
+      <c r="B114" s="4">
+        <v>0</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>45219.541805555556</v>
-      </c>
-      <c r="B115" s="3">
-        <v>0</v>
-      </c>
-      <c r="C115">
-        <v>2698</v>
+        <v>45218.708472222221</v>
+      </c>
+      <c r="B115" s="4">
+        <v>0</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>45219.500138888892</v>
-      </c>
-      <c r="B116" s="3">
-        <v>0</v>
-      </c>
-      <c r="C116">
-        <v>2684.7</v>
+        <v>45218.750138888892</v>
+      </c>
+      <c r="B116" s="4">
+        <v>0</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>45219.458472222221</v>
-      </c>
-      <c r="B117" s="3">
-        <v>0</v>
-      </c>
-      <c r="C117">
-        <v>2662.3</v>
+        <v>45218.791805555556</v>
+      </c>
+      <c r="B117" s="4">
+        <v>0</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>45219.416805555556</v>
-      </c>
-      <c r="B118" s="3">
-        <v>0</v>
-      </c>
-      <c r="C118">
-        <v>2571</v>
+        <v>45218.833472222221</v>
+      </c>
+      <c r="B118" s="4">
+        <v>0</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>45219.375138888892</v>
-      </c>
-      <c r="B119" s="3">
-        <v>0</v>
-      </c>
-      <c r="C119">
-        <v>2563.4</v>
+        <v>45218.875138888892</v>
+      </c>
+      <c r="B119" s="4">
+        <v>0</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>45219.333472222221</v>
-      </c>
-      <c r="B120" s="3">
-        <v>0</v>
-      </c>
-      <c r="C120">
-        <v>2582.6999999999998</v>
+        <v>45218.916805555556</v>
+      </c>
+      <c r="B120" s="4">
+        <v>0</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>45219.291805555556</v>
-      </c>
-      <c r="B121" s="3">
-        <v>0</v>
-      </c>
-      <c r="C121">
-        <v>2607.6</v>
+        <v>45218.958472222221</v>
+      </c>
+      <c r="B121" s="4">
+        <v>0</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>45219.250138888892</v>
-      </c>
-      <c r="B122" s="3">
-        <v>0</v>
-      </c>
-      <c r="C122">
-        <v>2657.5</v>
+        <v>45219.000138888892</v>
+      </c>
+      <c r="B122" s="4">
+        <v>0</v>
+      </c>
+      <c r="C122" s="1">
+        <v>2721.3</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>45219.208472222221</v>
-      </c>
-      <c r="B123" s="3">
-        <v>0</v>
-      </c>
-      <c r="C123">
-        <v>2690.9</v>
+        <v>45219.041805555556</v>
+      </c>
+      <c r="B123" s="4">
+        <v>0</v>
+      </c>
+      <c r="C123" s="1">
+        <v>2722</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>45219.166805555556</v>
-      </c>
-      <c r="B124" s="3">
-        <v>0</v>
-      </c>
-      <c r="C124">
-        <v>2708.3</v>
+        <v>45219.083472222221</v>
+      </c>
+      <c r="B124" s="4">
+        <v>0</v>
+      </c>
+      <c r="C124" s="1">
+        <v>2725.2</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>45219.125138888892</v>
       </c>
-      <c r="B125" s="3">
-        <v>0</v>
-      </c>
-      <c r="C125">
+      <c r="B125" s="4">
+        <v>0</v>
+      </c>
+      <c r="C125" s="1">
         <v>2728.8</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>45219.083472222221</v>
-      </c>
-      <c r="B126" s="3">
-        <v>0</v>
-      </c>
-      <c r="C126">
-        <v>2725.2</v>
+        <v>45219.166805555556</v>
+      </c>
+      <c r="B126" s="4">
+        <v>0</v>
+      </c>
+      <c r="C126" s="1">
+        <v>2708.3</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>45219.041805555556</v>
-      </c>
-      <c r="B127" s="3">
-        <v>0</v>
-      </c>
-      <c r="C127">
-        <v>2722</v>
+        <v>45219.208472222221</v>
+      </c>
+      <c r="B127" s="4">
+        <v>0</v>
+      </c>
+      <c r="C127" s="1">
+        <v>2690.9</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>45219.000138888892</v>
-      </c>
-      <c r="B128" s="3">
-        <v>0</v>
-      </c>
-      <c r="C128">
-        <v>2721.3</v>
-      </c>
+        <v>45219.250138888892</v>
+      </c>
+      <c r="B128" s="4">
+        <v>0</v>
+      </c>
+      <c r="C128" s="1">
+        <v>2657.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>45219.291805555556</v>
+      </c>
+      <c r="B129" s="4">
+        <v>0</v>
+      </c>
+      <c r="C129" s="1">
+        <v>2607.6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>45219.333472222221</v>
+      </c>
+      <c r="B130" s="4">
+        <v>0</v>
+      </c>
+      <c r="C130" s="1">
+        <v>2582.6999999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>45219.375138888892</v>
+      </c>
+      <c r="B131" s="4">
+        <v>0</v>
+      </c>
+      <c r="C131" s="1">
+        <v>2563.4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>45219.416805555556</v>
+      </c>
+      <c r="B132" s="4">
+        <v>0</v>
+      </c>
+      <c r="C132" s="1">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>45219.458472222221</v>
+      </c>
+      <c r="B133" s="4">
+        <v>0</v>
+      </c>
+      <c r="C133" s="1">
+        <v>2662.3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>45219.500138888892</v>
+      </c>
+      <c r="B134" s="4">
+        <v>0</v>
+      </c>
+      <c r="C134" s="1">
+        <v>2684.7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>45219.541805555556</v>
+      </c>
+      <c r="B135" s="4">
+        <v>0</v>
+      </c>
+      <c r="C135" s="1">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>45219.583472222221</v>
+      </c>
+      <c r="B136" s="4">
+        <v>0</v>
+      </c>
+      <c r="C136" s="1">
+        <v>2709.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>45219.625138888892</v>
+      </c>
+      <c r="B137" s="4">
+        <v>0</v>
+      </c>
+      <c r="C137" s="1">
+        <v>2713.1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>45219.666805555556</v>
+      </c>
+      <c r="B138" s="4">
+        <v>0</v>
+      </c>
+      <c r="C138" s="1">
+        <v>2718.6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>45219.708472222221</v>
+      </c>
+      <c r="B139" s="4">
+        <v>0</v>
+      </c>
+      <c r="C139" s="1">
+        <v>2722.9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>45219.750138888892</v>
+      </c>
+      <c r="B140" s="4">
+        <v>0</v>
+      </c>
+      <c r="C140" s="1">
+        <v>2729.4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>45219.791805555556</v>
+      </c>
+      <c r="B141" s="4">
+        <v>0</v>
+      </c>
+      <c r="C141" s="1">
+        <v>2721.7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>45219.833472222221</v>
+      </c>
+      <c r="B142" s="4">
+        <v>0</v>
+      </c>
+      <c r="C142" s="1">
+        <v>2721.8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>45219.875138888892</v>
+      </c>
+      <c r="B143" s="4">
+        <v>0</v>
+      </c>
+      <c r="C143" s="1">
+        <v>2720.2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>45219.916805555556</v>
+      </c>
+      <c r="B144" s="4">
+        <v>0</v>
+      </c>
+      <c r="C144" s="1">
+        <v>2723.2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>45219.958472222221</v>
+      </c>
+      <c r="B145" s="4">
+        <v>0</v>
+      </c>
+      <c r="C145" s="1">
+        <v>2722.3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>45220.000138888892</v>
+      </c>
+      <c r="B146" s="4">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>2723.3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>45220.041805555556</v>
+      </c>
+      <c r="B147" s="4">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>2725.6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>45220.083472222221</v>
+      </c>
+      <c r="B148" s="4">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>45220.125138888892</v>
+      </c>
+      <c r="B149" s="4">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>2724.8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>45220.166805555556</v>
+      </c>
+      <c r="B150" s="4">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>2726.6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>45220.208472222221</v>
+      </c>
+      <c r="B151" s="4">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>2723.7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>45220.250138888892</v>
+      </c>
+      <c r="B152" s="4">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>2704.1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>45220.291805555556</v>
+      </c>
+      <c r="B153" s="4">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>2689.9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>45220.333472222221</v>
+      </c>
+      <c r="B154" s="4">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>2644.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>45220.375138888892</v>
+      </c>
+      <c r="B155" s="4">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>2606.3000000000002</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>45220.416805555556</v>
+      </c>
+      <c r="B156" s="4">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>2582.1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>45220.458472222221</v>
+      </c>
+      <c r="B157" s="4">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>2561.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>45220.500138888892</v>
+      </c>
+      <c r="B158" s="4">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>45220.541805555556</v>
+      </c>
+      <c r="B159" s="4">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>2538.3000000000002</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>45220.583472222221</v>
+      </c>
+      <c r="B160" s="4">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>2533.1999999999998</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>45220.625138888892</v>
+      </c>
+      <c r="B161" s="4">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>2528.6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="2"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="2"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="2"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="2"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="2"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="2"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="2"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="2"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="2"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="2"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="2"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="2"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="2"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="2"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="2"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="2"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A50:D68">
-    <sortCondition ref="A50:A68"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A115:C161">
+    <sortCondition ref="A115:A161"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
+++ b/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3AE5BD2C-13EE-411A-9CA8-F88CF88C7B82}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C13788CE-8776-4C99-BCE1-8CCDA0E1B100}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Chuva (mm)</t>
   </si>
@@ -37,57 +37,6 @@
   </si>
   <si>
     <t>Data-Hora</t>
-  </si>
-  <si>
-    <t>2641.5</t>
-  </si>
-  <si>
-    <t>2668.3</t>
-  </si>
-  <si>
-    <t>2658.3</t>
-  </si>
-  <si>
-    <t>2635.2</t>
-  </si>
-  <si>
-    <t>2627.8</t>
-  </si>
-  <si>
-    <t>2602.3</t>
-  </si>
-  <si>
-    <t>2553.6</t>
-  </si>
-  <si>
-    <t>2539.9</t>
-  </si>
-  <si>
-    <t>2532.6</t>
-  </si>
-  <si>
-    <t>2615.1</t>
-  </si>
-  <si>
-    <t>2660.3</t>
-  </si>
-  <si>
-    <t>2682.4</t>
-  </si>
-  <si>
-    <t>2697.4</t>
-  </si>
-  <si>
-    <t>2703.6</t>
-  </si>
-  <si>
-    <t>2695.2</t>
-  </si>
-  <si>
-    <t>2709.2</t>
-  </si>
-  <si>
-    <t>2719.9</t>
   </si>
 </sst>
 </file>
@@ -423,8 +372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="G161" sqref="G161"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,8 +1476,8 @@
       <c r="B98" s="4">
         <v>0</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>4</v>
+      <c r="C98" s="1">
+        <v>2641.5</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1538,8 +1487,8 @@
       <c r="B99" s="4">
         <v>0</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>5</v>
+      <c r="C99" s="1">
+        <v>2668.3</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -1549,8 +1498,8 @@
       <c r="B100" s="4">
         <v>0</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>6</v>
+      <c r="C100" s="1">
+        <v>2658.3</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1560,8 +1509,8 @@
       <c r="B101" s="4">
         <v>0</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>7</v>
+      <c r="C101" s="1">
+        <v>2635.2</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1571,8 +1520,8 @@
       <c r="B102" s="4">
         <v>0</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>8</v>
+      <c r="C102" s="1">
+        <v>2627.8</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1582,8 +1531,8 @@
       <c r="B103" s="4">
         <v>0</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>9</v>
+      <c r="C103" s="1">
+        <v>2602.3000000000002</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -1604,8 +1553,8 @@
       <c r="B105" s="4">
         <v>0</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>10</v>
+      <c r="C105" s="1">
+        <v>2553.6</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1615,8 +1564,8 @@
       <c r="B106" s="4">
         <v>0</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>11</v>
+      <c r="C106" s="1">
+        <v>2539.9</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -1626,8 +1575,8 @@
       <c r="B107" s="4">
         <v>0</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>12</v>
+      <c r="C107" s="1">
+        <v>2532.6</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -1703,8 +1652,8 @@
       <c r="B114" s="4">
         <v>0</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>13</v>
+      <c r="C114" s="1">
+        <v>2615.1</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -1714,8 +1663,8 @@
       <c r="B115" s="4">
         <v>0</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>14</v>
+      <c r="C115" s="1">
+        <v>2660.3</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -1725,8 +1674,8 @@
       <c r="B116" s="4">
         <v>0</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>15</v>
+      <c r="C116" s="1">
+        <v>2682.4</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -1736,8 +1685,8 @@
       <c r="B117" s="4">
         <v>0</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>16</v>
+      <c r="C117" s="1">
+        <v>2697.4</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -1747,8 +1696,8 @@
       <c r="B118" s="4">
         <v>0</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>17</v>
+      <c r="C118" s="1">
+        <v>2703.6</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -1758,8 +1707,8 @@
       <c r="B119" s="4">
         <v>0</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>18</v>
+      <c r="C119" s="1">
+        <v>2695.2</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -1769,8 +1718,8 @@
       <c r="B120" s="4">
         <v>0</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>19</v>
+      <c r="C120" s="1">
+        <v>2709.2</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -1780,8 +1729,8 @@
       <c r="B121" s="4">
         <v>0</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>20</v>
+      <c r="C121" s="1">
+        <v>2719.9</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2225,28 +2174,92 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="2"/>
+      <c r="A162" s="2">
+        <v>45220.666805555556</v>
+      </c>
+      <c r="B162" s="4">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>2526.5</v>
+      </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="2"/>
+      <c r="A163" s="2">
+        <v>45220.708472222221</v>
+      </c>
+      <c r="B163" s="4">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>2574.8000000000002</v>
+      </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="2"/>
+      <c r="A164" s="2">
+        <v>45220.750138888892</v>
+      </c>
+      <c r="B164" s="4">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>2586.6999999999998</v>
+      </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="2"/>
+      <c r="A165" s="2">
+        <v>45220.791805555556</v>
+      </c>
+      <c r="B165" s="4">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>2587.6</v>
+      </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="2"/>
+      <c r="A166" s="2">
+        <v>45220.833472222221</v>
+      </c>
+      <c r="B166" s="4">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>2579.9</v>
+      </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="2"/>
+      <c r="A167" s="2">
+        <v>45220.875138888892</v>
+      </c>
+      <c r="B167" s="4">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>2611.8000000000002</v>
+      </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="2"/>
+      <c r="A168" s="2">
+        <v>45220.916805555556</v>
+      </c>
+      <c r="B168" s="4">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>2628.8</v>
+      </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="2"/>
+      <c r="A169" s="2">
+        <v>45220.958472222221</v>
+      </c>
+      <c r="B169" s="4">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>2653.5</v>
+      </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>

--- a/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
+++ b/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C13788CE-8776-4C99-BCE1-8CCDA0E1B100}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CF274256-2513-4259-B5D8-8409AF8B5D58}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D178"/>
+  <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="F178" sqref="F178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2262,31 +2262,191 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="2"/>
+      <c r="A170" s="2">
+        <v>45221.000138888892</v>
+      </c>
+      <c r="B170" s="4">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>2665.1</v>
+      </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="2"/>
+      <c r="A171" s="2">
+        <v>45221.041805555556</v>
+      </c>
+      <c r="B171" s="4">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>2673.8</v>
+      </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="2"/>
+      <c r="A172" s="2">
+        <v>45221.083472222221</v>
+      </c>
+      <c r="B172" s="4">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>2678.5</v>
+      </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="2"/>
+      <c r="A173" s="2">
+        <v>45221.125138888892</v>
+      </c>
+      <c r="B173" s="4">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>2653.8</v>
+      </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="2"/>
+      <c r="A174" s="2">
+        <v>45221.166805555556</v>
+      </c>
+      <c r="B174" s="4">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>2615.6</v>
+      </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="2"/>
+      <c r="A175" s="2">
+        <v>45221.208472222221</v>
+      </c>
+      <c r="B175" s="4">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>2593.6</v>
+      </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="2"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="2"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="2"/>
+      <c r="A176" s="2">
+        <v>45221.250138888892</v>
+      </c>
+      <c r="B176" s="4">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>2567.3000000000002</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>45221.291805555556</v>
+      </c>
+      <c r="B177" s="4">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>2553.6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>45221.333472222221</v>
+      </c>
+      <c r="B178" s="4">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>2542.6999999999998</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>45221.375138888892</v>
+      </c>
+      <c r="B179" s="4">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>45221.416805555556</v>
+      </c>
+      <c r="B180" s="4">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>2529.1999999999998</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>45221.458472222221</v>
+      </c>
+      <c r="B181" s="4">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>2526.8000000000002</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>45221.500138888892</v>
+      </c>
+      <c r="B182" s="4">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>2523.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>45221.541805555556</v>
+      </c>
+      <c r="B183" s="4">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>2520.6999999999998</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>45221.583472222221</v>
+      </c>
+      <c r="B184" s="4">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>2520.4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>45221.625138888892</v>
+      </c>
+      <c r="B185" s="4">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>2517.1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>45221.666805555556</v>
+      </c>
+      <c r="B186" s="4">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>2514.9</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A115:C161">

--- a/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
+++ b/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CF274256-2513-4259-B5D8-8409AF8B5D58}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{14EB599F-C55C-40F4-9ABA-4F2576CE80B1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D186"/>
+  <dimension ref="A1:D202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="F178" sqref="F178"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="E192" sqref="E192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2448,6 +2448,191 @@
         <v>2514.9</v>
       </c>
     </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>45221.708472222221</v>
+      </c>
+      <c r="B187" s="4">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>45221.750138888892</v>
+      </c>
+      <c r="B188" s="4">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>2516.9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>45221.791805555556</v>
+      </c>
+      <c r="B189" s="4">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>45221.833472222221</v>
+      </c>
+      <c r="B190" s="4">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>2513.6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>45221.875138888892</v>
+      </c>
+      <c r="B191" s="4">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>2511.1999999999998</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>45221.916805555556</v>
+      </c>
+      <c r="B192" s="4">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>2512.6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>45221.958472222221</v>
+      </c>
+      <c r="B193" s="4">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>2512.5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
+        <v>45222.000138888892</v>
+      </c>
+      <c r="B194" s="4">
+        <v>0</v>
+      </c>
+      <c r="C194" s="1">
+        <v>2512.8000000000002</v>
+      </c>
+      <c r="D194" s="1"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
+        <v>45222.041805555556</v>
+      </c>
+      <c r="B195" s="4">
+        <v>0</v>
+      </c>
+      <c r="C195" s="1">
+        <v>2513</v>
+      </c>
+      <c r="D195" s="1"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
+        <v>45222.083472222221</v>
+      </c>
+      <c r="B196" s="4">
+        <v>0</v>
+      </c>
+      <c r="C196" s="1">
+        <v>2512.6999999999998</v>
+      </c>
+      <c r="D196" s="1"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <v>45222.125138888892</v>
+      </c>
+      <c r="B197" s="4">
+        <v>0</v>
+      </c>
+      <c r="C197" s="1">
+        <v>2511.1999999999998</v>
+      </c>
+      <c r="D197" s="1"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
+        <v>45222.166805555556</v>
+      </c>
+      <c r="B198" s="4">
+        <v>0</v>
+      </c>
+      <c r="C198" s="1">
+        <v>2511.8000000000002</v>
+      </c>
+      <c r="D198" s="1"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
+        <v>45222.208472222221</v>
+      </c>
+      <c r="B199" s="4">
+        <v>0</v>
+      </c>
+      <c r="C199" s="1">
+        <v>2513.1</v>
+      </c>
+      <c r="D199" s="1"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
+        <v>45222.250138888892</v>
+      </c>
+      <c r="B200" s="4">
+        <v>0</v>
+      </c>
+      <c r="C200" s="1">
+        <v>2513</v>
+      </c>
+      <c r="D200" s="1"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <v>45222.291805555556</v>
+      </c>
+      <c r="B201" s="4">
+        <v>0</v>
+      </c>
+      <c r="C201" s="1">
+        <v>2513.8000000000002</v>
+      </c>
+      <c r="D201" s="1"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <v>45222.333472222221</v>
+      </c>
+      <c r="B202" s="4">
+        <v>0</v>
+      </c>
+      <c r="C202" s="1">
+        <v>2513</v>
+      </c>
+      <c r="D202" s="1"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A115:C161">
     <sortCondition ref="A115:A161"/>

--- a/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
+++ b/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{14EB599F-C55C-40F4-9ABA-4F2576CE80B1}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{927F7ECF-588E-4942-AE00-2582D32C4942}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D202"/>
+  <dimension ref="A1:D211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="E192" sqref="E192"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="G204" sqref="G204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2633,6 +2633,105 @@
       </c>
       <c r="D202" s="1"/>
     </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>45222.375138888892</v>
+      </c>
+      <c r="B203" s="4">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>2512.6999999999998</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>45222.416805555556</v>
+      </c>
+      <c r="B204" s="4">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>2515.1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>45222.458472222221</v>
+      </c>
+      <c r="B205" s="4">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>2511.9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
+        <v>45222.500138888892</v>
+      </c>
+      <c r="B206" s="4">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>2514.4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
+        <v>45222.541805555556</v>
+      </c>
+      <c r="B207" s="4">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>2513.4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
+        <v>45222.583472222221</v>
+      </c>
+      <c r="B208" s="4">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
+        <v>45222.625138888892</v>
+      </c>
+      <c r="B209" s="4">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>2513.6999999999998</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
+        <v>45222.666805555556</v>
+      </c>
+      <c r="B210" s="4">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>2514.1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
+        <v>45222.708472222221</v>
+      </c>
+      <c r="B211" s="4">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>2512.6999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A115:C161">
     <sortCondition ref="A115:A161"/>

--- a/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
+++ b/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{927F7ECF-588E-4942-AE00-2582D32C4942}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5840A3ED-BD10-42F7-A255-A210ED6F4E3C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D211"/>
+  <dimension ref="A1:D227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="G204" sqref="G204"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="F219" sqref="F219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2732,6 +2732,182 @@
         <v>2512.6999999999998</v>
       </c>
     </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
+        <v>45222.750138888892</v>
+      </c>
+      <c r="B212" s="4">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>2512.4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
+        <v>45222.791805555556</v>
+      </c>
+      <c r="B213" s="4">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>2510.9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
+        <v>45222.833472222221</v>
+      </c>
+      <c r="B214" s="4">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
+        <v>45222.875138888892</v>
+      </c>
+      <c r="B215" s="4">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>2509.9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
+        <v>45222.916805555556</v>
+      </c>
+      <c r="B216" s="4">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>2507.8000000000002</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="2">
+        <v>45222.958472222221</v>
+      </c>
+      <c r="B217" s="4">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>2506.6999999999998</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="2">
+        <v>45223.000138888892</v>
+      </c>
+      <c r="B218" s="4">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>2508.3000000000002</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="2">
+        <v>45223.041805555556</v>
+      </c>
+      <c r="B219" s="4">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
+        <v>45223.083472222221</v>
+      </c>
+      <c r="B220" s="4">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="2">
+        <v>45223.125138888892</v>
+      </c>
+      <c r="B221" s="4">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
+        <v>45223.166805555556</v>
+      </c>
+      <c r="B222" s="4">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>2520.5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="2">
+        <v>45223.208472222221</v>
+      </c>
+      <c r="B223" s="4">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>2518.1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="2">
+        <v>45223.250138888892</v>
+      </c>
+      <c r="B224" s="4">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>2515.6999999999998</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
+        <v>45223.291805555556</v>
+      </c>
+      <c r="B225" s="4">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>2511.3000000000002</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="2">
+        <v>45223.333472222221</v>
+      </c>
+      <c r="B226" s="4">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>2510.6999999999998</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="2">
+        <v>45223.375138888892</v>
+      </c>
+      <c r="B227" s="4">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>2509.6</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A115:C161">
     <sortCondition ref="A115:A161"/>

--- a/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
+++ b/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5840A3ED-BD10-42F7-A255-A210ED6F4E3C}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8AD90140-0F86-480A-9EE8-60CE84C0260C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D227"/>
+  <dimension ref="A1:D235"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="F219" sqref="F219"/>
+      <selection activeCell="E229" sqref="E229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2908,6 +2908,94 @@
         <v>2509.6</v>
       </c>
     </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
+        <v>45223.416805555556</v>
+      </c>
+      <c r="B228" s="4">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>2507.9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
+        <v>45223.458472222221</v>
+      </c>
+      <c r="B229" s="4">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>2510.1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
+        <v>45223.500138888892</v>
+      </c>
+      <c r="B230" s="4">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>2506.9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="2">
+        <v>45223.541805555556</v>
+      </c>
+      <c r="B231" s="4">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>2509.1999999999998</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="2">
+        <v>45223.583472222221</v>
+      </c>
+      <c r="B232" s="4">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>2509.3000000000002</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="2">
+        <v>45223.625138888892</v>
+      </c>
+      <c r="B233" s="4">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="2">
+        <v>45223.666805555556</v>
+      </c>
+      <c r="B234" s="4">
+        <v>0</v>
+      </c>
+      <c r="C234">
+        <v>2510.4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="2">
+        <v>45223.708472222221</v>
+      </c>
+      <c r="B235" s="4">
+        <v>0</v>
+      </c>
+      <c r="C235">
+        <v>2511.1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A115:C161">
     <sortCondition ref="A115:A161"/>

--- a/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
+++ b/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8AD90140-0F86-480A-9EE8-60CE84C0260C}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9CFC5E13-5E74-48E3-A8A4-80EF00E8FEFB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D235"/>
+  <dimension ref="A1:D280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="E229" sqref="E229"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="G270" sqref="G270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2996,6 +2996,501 @@
         <v>2511.1</v>
       </c>
     </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="2">
+        <v>45223.750138888892</v>
+      </c>
+      <c r="B236" s="4">
+        <v>0</v>
+      </c>
+      <c r="C236">
+        <v>2529.3000000000002</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="2">
+        <v>45223.791805555556</v>
+      </c>
+      <c r="B237" s="4">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>2648.9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="2">
+        <v>45223.833472222221</v>
+      </c>
+      <c r="B238" s="4">
+        <v>0</v>
+      </c>
+      <c r="C238">
+        <v>2671.3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="2">
+        <v>45223.875138888892</v>
+      </c>
+      <c r="B239" s="4">
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <v>2613.5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="2">
+        <v>45223.916805555556</v>
+      </c>
+      <c r="B240" s="4">
+        <v>0</v>
+      </c>
+      <c r="C240">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="2">
+        <v>45223.958472222221</v>
+      </c>
+      <c r="B241" s="4">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>2569.1999999999998</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="2">
+        <v>45224.000138888892</v>
+      </c>
+      <c r="B242" s="4">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>2572.8000000000002</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="2">
+        <v>45224.041805555556</v>
+      </c>
+      <c r="B243" s="4">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <v>2570.1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="2">
+        <v>45224.083472222221</v>
+      </c>
+      <c r="B244" s="4">
+        <v>0</v>
+      </c>
+      <c r="C244">
+        <v>2556.9</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="2">
+        <v>45224.125138888892</v>
+      </c>
+      <c r="B245" s="4">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <v>2540.5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="2">
+        <v>45224.166805555556</v>
+      </c>
+      <c r="B246" s="4">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>2532.4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="2">
+        <v>45224.208472222221</v>
+      </c>
+      <c r="B247" s="4">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>2526.3000000000002</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="2">
+        <v>45224.250138888892</v>
+      </c>
+      <c r="B248" s="4">
+        <v>0</v>
+      </c>
+      <c r="C248">
+        <v>2524.6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="2">
+        <v>45224.291805555556</v>
+      </c>
+      <c r="B249" s="4">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <v>2518.9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="2">
+        <v>45224.333472222221</v>
+      </c>
+      <c r="B250" s="4">
+        <v>0</v>
+      </c>
+      <c r="C250">
+        <v>2517.6999999999998</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="2">
+        <v>45224.375138888892</v>
+      </c>
+      <c r="B251" s="4">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="2">
+        <v>45224.416805555556</v>
+      </c>
+      <c r="B252" s="4">
+        <v>0</v>
+      </c>
+      <c r="C252">
+        <v>2514.4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="2">
+        <v>45224.458472222221</v>
+      </c>
+      <c r="B253" s="4">
+        <v>0</v>
+      </c>
+      <c r="C253">
+        <v>2514.9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="2">
+        <v>45224.500138888892</v>
+      </c>
+      <c r="B254" s="4">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>2511.6999999999998</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="2">
+        <v>45224.541805555556</v>
+      </c>
+      <c r="B255" s="4">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>2512.6999999999998</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="2">
+        <v>45224.583472222221</v>
+      </c>
+      <c r="B256" s="4">
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <v>2511.6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="2">
+        <v>45224.625138888892</v>
+      </c>
+      <c r="B257" s="4">
+        <v>0</v>
+      </c>
+      <c r="C257">
+        <v>2536.6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="2">
+        <v>45224.666805555556</v>
+      </c>
+      <c r="B258" s="4">
+        <v>0</v>
+      </c>
+      <c r="C258">
+        <v>2621.9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="2">
+        <v>45224.708472222221</v>
+      </c>
+      <c r="B259" s="4">
+        <v>0</v>
+      </c>
+      <c r="C259">
+        <v>2664.5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="2">
+        <v>45224.750138888892</v>
+      </c>
+      <c r="B260" s="4">
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <v>2687.7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="2">
+        <v>45224.791805555556</v>
+      </c>
+      <c r="B261" s="4">
+        <v>0</v>
+      </c>
+      <c r="C261">
+        <v>2698.3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="2">
+        <v>45224.833472222221</v>
+      </c>
+      <c r="B262" s="4">
+        <v>0</v>
+      </c>
+      <c r="C262">
+        <v>2707.6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="2">
+        <v>45224.875138888892</v>
+      </c>
+      <c r="B263" s="4">
+        <v>0</v>
+      </c>
+      <c r="C263">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="2">
+        <v>45224.958472222221</v>
+      </c>
+      <c r="B264" s="4">
+        <v>0</v>
+      </c>
+      <c r="C264">
+        <v>2687.6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="2">
+        <v>45225.000138888892</v>
+      </c>
+      <c r="B265" s="4">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>2707.9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="2">
+        <v>45225.041805555556</v>
+      </c>
+      <c r="B266" s="4">
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <v>2709.8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="2">
+        <v>45225.083472222221</v>
+      </c>
+      <c r="B267" s="4">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <v>2715.2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="2">
+        <v>45225.125138888892</v>
+      </c>
+      <c r="B268" s="4">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>2662.6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="2">
+        <v>45225.166805555556</v>
+      </c>
+      <c r="B269" s="4">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>2620.6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="2">
+        <v>45225.208472222221</v>
+      </c>
+      <c r="B270" s="4">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="2">
+        <v>45225.250138888892</v>
+      </c>
+      <c r="B271" s="4">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>2572.1999999999998</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="2">
+        <v>45225.291805555556</v>
+      </c>
+      <c r="B272" s="4">
+        <v>0</v>
+      </c>
+      <c r="C272">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="2">
+        <v>45225.333472222221</v>
+      </c>
+      <c r="B273" s="4">
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <v>2540.5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="2">
+        <v>45225.375138888892</v>
+      </c>
+      <c r="B274" s="4">
+        <v>0</v>
+      </c>
+      <c r="C274">
+        <v>2533.6999999999998</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="2">
+        <v>45225.416805555556</v>
+      </c>
+      <c r="B275" s="4">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>2526.8000000000002</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="2">
+        <v>45225.458472222221</v>
+      </c>
+      <c r="B276" s="4">
+        <v>0</v>
+      </c>
+      <c r="C276">
+        <v>2523.1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="2">
+        <v>45225.500138888892</v>
+      </c>
+      <c r="B277" s="4">
+        <v>0</v>
+      </c>
+      <c r="C277">
+        <v>2518.3000000000002</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="2">
+        <v>45225.541805555556</v>
+      </c>
+      <c r="B278" s="4">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>2514.8000000000002</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="2">
+        <v>45225.583472222221</v>
+      </c>
+      <c r="B279" s="4">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>2514.6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="2">
+        <v>45225.625138888892</v>
+      </c>
+      <c r="B280" s="4">
+        <v>0</v>
+      </c>
+      <c r="C280">
+        <v>2590.3000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A115:C161">
     <sortCondition ref="A115:A161"/>

--- a/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
+++ b/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9CFC5E13-5E74-48E3-A8A4-80EF00E8FEFB}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FEB4BEC0-BE27-419E-98A9-BBB9CF265D0E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D280"/>
+  <dimension ref="A1:D288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="G270" sqref="G270"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="D282" sqref="D282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3491,6 +3491,94 @@
         <v>2590.3000000000002</v>
       </c>
     </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="2">
+        <v>45225.666805555556</v>
+      </c>
+      <c r="B281" s="4">
+        <v>0</v>
+      </c>
+      <c r="C281">
+        <v>2661.8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="2">
+        <v>45225.708472222221</v>
+      </c>
+      <c r="B282" s="4">
+        <v>0</v>
+      </c>
+      <c r="C282">
+        <v>2688.2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="2">
+        <v>45225.750138888892</v>
+      </c>
+      <c r="B283" s="4">
+        <v>0</v>
+      </c>
+      <c r="C283">
+        <v>2698.1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="2">
+        <v>45225.791805555556</v>
+      </c>
+      <c r="B284" s="4">
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <v>2709.3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="2">
+        <v>45225.833472222221</v>
+      </c>
+      <c r="B285" s="4">
+        <v>0</v>
+      </c>
+      <c r="C285">
+        <v>2719.2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="2">
+        <v>45225.875138888892</v>
+      </c>
+      <c r="B286" s="4">
+        <v>0</v>
+      </c>
+      <c r="C286">
+        <v>2725.3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="2">
+        <v>45225.916805555556</v>
+      </c>
+      <c r="B287" s="4">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>2728.3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="2">
+        <v>45225.958472222221</v>
+      </c>
+      <c r="B288" s="4">
+        <v>0</v>
+      </c>
+      <c r="C288">
+        <v>2729.8</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A115:C161">
     <sortCondition ref="A115:A161"/>

--- a/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
+++ b/dados_setor_eletrico/16070990 - UHE BALBINA CANAL DE FUGA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FEB4BEC0-BE27-419E-98A9-BBB9CF265D0E}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{26E09DB9-E326-4742-8830-2E905221FCE0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D288"/>
+  <dimension ref="A1:D300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="D282" sqref="D282"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="E290" sqref="E290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3579,6 +3579,138 @@
         <v>2729.8</v>
       </c>
     </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="2">
+        <v>45226.000138888892</v>
+      </c>
+      <c r="B289" s="4">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>2732.6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="2">
+        <v>45226.041805555556</v>
+      </c>
+      <c r="B290" s="4">
+        <v>0</v>
+      </c>
+      <c r="C290">
+        <v>2734.3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="2">
+        <v>45226.083472222221</v>
+      </c>
+      <c r="B291" s="4">
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <v>2728.7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="2">
+        <v>45226.125138888892</v>
+      </c>
+      <c r="B292" s="4">
+        <v>0</v>
+      </c>
+      <c r="C292">
+        <v>2708.7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="2">
+        <v>45226.166805555556</v>
+      </c>
+      <c r="B293" s="4">
+        <v>0</v>
+      </c>
+      <c r="C293">
+        <v>2678.6</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="2">
+        <v>45226.208472222221</v>
+      </c>
+      <c r="B294" s="4">
+        <v>0</v>
+      </c>
+      <c r="C294">
+        <v>2629.5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="2">
+        <v>45226.250138888892</v>
+      </c>
+      <c r="B295" s="4">
+        <v>0</v>
+      </c>
+      <c r="C295">
+        <v>2598.8000000000002</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="2">
+        <v>45226.291805555556</v>
+      </c>
+      <c r="B296" s="4">
+        <v>0</v>
+      </c>
+      <c r="C296">
+        <v>2572.9</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="2">
+        <v>45226.333472222221</v>
+      </c>
+      <c r="B297" s="4">
+        <v>0</v>
+      </c>
+      <c r="C297">
+        <v>2559.1999999999998</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="2">
+        <v>45226.375138888892</v>
+      </c>
+      <c r="B298" s="4">
+        <v>0</v>
+      </c>
+      <c r="C298">
+        <v>2546.4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="2">
+        <v>45226.416805555556</v>
+      </c>
+      <c r="B299" s="4">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>2536.1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="2">
+        <v>45226.458472222221</v>
+      </c>
+      <c r="B300" s="4">
+        <v>0</v>
+      </c>
+      <c r="C300">
+        <v>2530.6999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A115:C161">
     <sortCondition ref="A115:A161"/>
